--- a/file_import_data/jadwal_pelaksanaan.xlsx
+++ b/file_import_data/jadwal_pelaksanaan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\toeic\file_import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE92E0E-0C54-438E-8406-15C6BE57C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A47143-894C-41F0-8EAC-C857E1EFA979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CCCC91B2-35A4-433D-B4D1-963FC7824957}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>NIM</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>jam pelaksanaan</t>
+  </si>
+  <si>
+    <t>25-8-2025</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A382D5E1-BB7E-4E8F-AB50-0AE0DFAC35D2}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,13 +425,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2341760022</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45894</v>
+        <v>2341760196</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2341760036</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
